--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>constants</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>engine.entity</t>
   </si>
@@ -41,21 +38,12 @@
     <t>ui</t>
   </si>
   <si>
-    <t>GameParameters</t>
-  </si>
-  <si>
     <t>BallEntity</t>
   </si>
   <si>
     <t>BlockEntity</t>
   </si>
   <si>
-    <t>BotStickEntity</t>
-  </si>
-  <si>
-    <t>PlayerStickEntity</t>
-  </si>
-  <si>
     <t>StickEntity</t>
   </si>
   <si>
@@ -159,6 +147,21 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>rejoining sticks</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>Constatns</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>New Total</t>
   </si>
 </sst>
 </file>
@@ -194,12 +197,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -514,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,449 +539,591 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>228</v>
-      </c>
-      <c r="D3" s="1">
-        <f>SUM(C3)</f>
-        <v>228</v>
-      </c>
-      <c r="E3" s="1">
-        <f>SUM(D3)</f>
-        <v>228</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="G3" s="2">
         <v>42781</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5253</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>154</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G4" s="2">
+        <v>42823</v>
+      </c>
+      <c r="H4" s="3">
+        <v>380</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5633</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>451</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(C3:C5)</f>
+        <v>943</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUM(D3:D5)</f>
+        <v>943</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>128</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>271</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(C7:C8)</f>
+        <v>342</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(D3:D8)</f>
+        <v>1285</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>112</v>
-      </c>
-      <c r="D9" s="1">
-        <f>SUM(C5:C9)</f>
-        <v>827</v>
-      </c>
-      <c r="E9" s="1">
-        <f>SUM(D3:D9)</f>
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>143</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <v>265</v>
-      </c>
-      <c r="D12" s="1">
-        <f>SUM(C11:C12)</f>
-        <v>335</v>
-      </c>
-      <c r="E12" s="1">
-        <f>SUM(D3:D12)</f>
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>47</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>64</v>
+        <v>575</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>511</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(C10:C19)</f>
+        <v>1788</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(D3:D19)</f>
+        <v>3073</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>215</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
-        <v>229</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(C21:C22)</f>
+        <v>323</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(D3:D22)</f>
+        <v>3396</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1">
-        <f>SUM(C14:C23)</f>
-        <v>1634</v>
-      </c>
-      <c r="E23" s="1">
-        <f>SUM(D3:D23)</f>
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>152</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>112</v>
+        <v>552</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>591</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>327</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(C24:C29)</f>
+        <v>1908</v>
+      </c>
+      <c r="E29" s="1">
+        <f>SUM(D3:D29)</f>
+        <v>5304</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
-        <v>439</v>
-      </c>
-      <c r="D30" s="1">
-        <f>SUM(C25:C30)</f>
-        <v>1900</v>
-      </c>
-      <c r="E30" s="1">
-        <f>SUM(D3:D30)</f>
-        <v>4924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
         <v>43</v>
       </c>
-      <c r="D32" s="1">
-        <f>SUM(C32)</f>
+      <c r="D31" s="1">
+        <f>SUM(C31)</f>
         <v>43</v>
       </c>
-      <c r="E32" s="1">
-        <f>SUM(D3:D32)</f>
-        <v>4967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="E31" s="1">
+        <f>SUM(D3:D31)</f>
+        <v>5347</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>78</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>78</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="D35" s="1">
-        <f>SUM(C34)*2+SUM(C35)*13</f>
+      <c r="D34" s="1">
+        <f>SUM(C33)*2+SUM(C34)*13</f>
         <v>286</v>
       </c>
-      <c r="E35" s="1">
-        <f>SUM(D3:D35)</f>
+      <c r="E34" s="1">
+        <f>SUM(D3:D34)</f>
+        <v>5633</v>
+      </c>
+      <c r="F34">
         <v>5253</v>
       </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -131,9 +131,6 @@
     <t>Sum Total</t>
   </si>
   <si>
-    <t xml:space="preserve"> -99 lines</t>
-  </si>
-  <si>
     <t>removing unnsecesary TestXEntities</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>New Total</t>
+  </si>
+  <si>
+    <t>block targeting stickBot</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +560,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -573,13 +573,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3">
+        <v>5352</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -590,21 +593,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="G3" s="2">
         <v>42781</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
+      <c r="H3" s="3">
+        <f>I3-I2</f>
+        <v>-99</v>
       </c>
       <c r="I3" s="3">
         <v>5253</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -621,13 +625,14 @@
         <v>42823</v>
       </c>
       <c r="H4" s="3">
+        <f>I4-I3</f>
         <v>380</v>
       </c>
       <c r="I4" s="3">
         <v>5633</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -636,20 +641,29 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="D5" s="1">
         <f>SUM(C3:C5)</f>
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="E5" s="1">
         <f>SUM(D3:D5)</f>
-        <v>943</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
+        <v>976</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42827</v>
+      </c>
+      <c r="H5" s="3">
+        <f>I5-I4</f>
+        <v>51</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5684</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -658,7 +672,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H34" si="0">I6-I5</f>
+        <v>-5684</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
@@ -675,7 +692,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
@@ -693,10 +713,13 @@
       </c>
       <c r="E8" s="1">
         <f>SUM(D3:D8)</f>
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
@@ -707,7 +730,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
@@ -724,7 +750,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
@@ -739,7 +768,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
@@ -754,7 +786,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
@@ -769,7 +804,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
@@ -784,7 +822,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
@@ -794,12 +835,15 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
@@ -814,7 +858,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
@@ -829,7 +876,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
@@ -844,7 +894,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
@@ -858,14 +911,17 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(C10:C19)</f>
-        <v>1788</v>
+        <v>1807</v>
       </c>
       <c r="E19" s="1">
         <f>SUM(D3:D19)</f>
-        <v>3073</v>
+        <v>3125</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
@@ -876,16 +932,19 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>175</v>
@@ -893,14 +952,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>148</v>
@@ -911,10 +973,13 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(D3:D22)</f>
-        <v>3396</v>
+        <v>3448</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
@@ -925,7 +990,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
@@ -937,12 +1005,15 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
@@ -957,7 +1028,10 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
@@ -972,7 +1046,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
@@ -987,7 +1064,10 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
@@ -1002,7 +1082,10 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
@@ -1016,14 +1099,17 @@
       </c>
       <c r="D29" s="1">
         <f>SUM(C24:C29)</f>
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E29" s="1">
         <f>SUM(D3:D29)</f>
-        <v>5304</v>
+        <v>5355</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
@@ -1034,7 +1120,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
@@ -1054,10 +1143,13 @@
       </c>
       <c r="E31" s="1">
         <f>SUM(D3:D31)</f>
-        <v>5347</v>
+        <v>5398</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
@@ -1068,7 +1160,10 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
@@ -1085,7 +1180,10 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
@@ -1103,13 +1201,13 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(D3:D34)</f>
-        <v>5633</v>
-      </c>
-      <c r="F34">
-        <v>5253</v>
+        <v>5684</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>engine.entity</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>block targeting stickBot</t>
+  </si>
+  <si>
+    <t>using buttonEntities</t>
+  </si>
+  <si>
+    <t>ButtonEntity</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,19 +644,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
-        <v>406</v>
-      </c>
-      <c r="D5" s="1">
-        <f>SUM(C3:C5)</f>
-        <v>976</v>
-      </c>
-      <c r="E5" s="1">
-        <f>SUM(D3:D5)</f>
-        <v>976</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="G5" s="2">
         <v>42827</v>
       </c>
@@ -667,54 +667,57 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>410</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(C3:C6)</f>
+        <v>1055</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(D3:D6)</f>
+        <v>1055</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42828</v>
+      </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H34" si="0">I6-I5</f>
-        <v>-5684</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
+        <f>I6-I5</f>
+        <v>-128</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5556</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>71</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
+        <f t="shared" ref="H7:H35" si="0">I7-I6</f>
+        <v>-5556</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>271</v>
-      </c>
-      <c r="D8" s="1">
-        <f>SUM(C7:C8)</f>
-        <v>342</v>
-      </c>
-      <c r="E8" s="1">
-        <f>SUM(D3:D8)</f>
-        <v>1318</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
@@ -725,10 +728,20 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>271</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(C8:C9)</f>
+        <v>342</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(D3:D9)</f>
+        <v>1397</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
@@ -738,15 +751,9 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>143</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="G10" s="3"/>
@@ -758,12 +765,14 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -778,10 +787,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -796,10 +805,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -814,10 +823,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -832,10 +841,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>594</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -850,10 +859,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -868,10 +877,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -886,10 +895,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -904,19 +913,13 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1">
-        <f>SUM(C10:C19)</f>
-        <v>1807</v>
-      </c>
-      <c r="E19" s="1">
-        <f>SUM(D3:D19)</f>
-        <v>3125</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
@@ -927,10 +930,20 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(C11:C20)</f>
+        <v>1805</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(D3:D20)</f>
+        <v>3202</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
@@ -940,15 +953,9 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1">
-        <v>175</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
@@ -960,21 +967,17 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
-        <v>148</v>
-      </c>
-      <c r="D22" s="1">
-        <f>SUM(C21:C22)</f>
-        <v>323</v>
-      </c>
-      <c r="E22" s="1">
-        <f>SUM(D3:D22)</f>
-        <v>3448</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
@@ -985,10 +988,20 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(C22:C23)</f>
+        <v>323</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(D3:D23)</f>
+        <v>3525</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
@@ -998,15 +1011,9 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1">
-        <v>151</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
@@ -1018,12 +1025,14 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1038,10 +1047,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>552</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1056,10 +1065,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>291</v>
+        <v>552</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1074,10 +1083,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1092,19 +1101,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>457</v>
-      </c>
-      <c r="D29" s="1">
-        <f>SUM(C24:C29)</f>
-        <v>1907</v>
-      </c>
-      <c r="E29" s="1">
-        <f>SUM(D3:D29)</f>
-        <v>5355</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
@@ -1115,10 +1118,20 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>326</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(C25:C30)</f>
+        <v>1702</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(D3:D30)</f>
+        <v>5227</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
@@ -1128,23 +1141,11 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <f>SUM(C31)</f>
-        <v>43</v>
-      </c>
-      <c r="E31" s="1">
-        <f>SUM(D3:D31)</f>
-        <v>5398</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
@@ -1154,11 +1155,23 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM(C32)</f>
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <f>SUM(D3:D32)</f>
+        <v>5270</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
@@ -1168,15 +1181,9 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
-        <v>78</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="G33" s="3"/>
@@ -1188,21 +1195,17 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <f>SUM(C33)*2+SUM(C34)*13</f>
-        <v>286</v>
-      </c>
-      <c r="E34" s="1">
-        <f>SUM(D3:D34)</f>
-        <v>5684</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
         <f t="shared" si="0"/>
@@ -1212,8 +1215,26 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(C34)*2+SUM(C35)*13</f>
+        <v>286</v>
+      </c>
+      <c r="E35" s="1">
+        <f>SUM(D3:D35)</f>
+        <v>5556</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
@@ -1223,6 +1244,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>engine.entity</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>ButtonEntity</t>
+  </si>
+  <si>
+    <t>Actions using lambda</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -537,7 +541,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,9 +705,18 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="G7" s="6">
+        <v>42828</v>
+      </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H35" si="0">I7-I6</f>
-        <v>-5556</v>
+        <v>-54</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5502</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -721,7 +734,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5502</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
@@ -1032,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1068,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1086,7 +1099,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1104,7 +1117,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1122,15 +1135,15 @@
         <v>24</v>
       </c>
       <c r="C30" s="1">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="D30" s="1">
         <f>SUM(C25:C30)</f>
-        <v>1702</v>
+        <v>1648</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(D3:D30)</f>
-        <v>5227</v>
+        <v>5173</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -1170,7 +1183,7 @@
       </c>
       <c r="E32" s="1">
         <f>SUM(D3:D32)</f>
-        <v>5270</v>
+        <v>5216</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
@@ -1228,7 +1241,7 @@
       </c>
       <c r="E35" s="1">
         <f>SUM(D3:D35)</f>
-        <v>5556</v>
+        <v>5502</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>engine.entity</t>
   </si>
@@ -122,9 +122,6 @@
     <t>.lang  x2</t>
   </si>
   <si>
-    <t>.mao  x13</t>
-  </si>
-  <si>
     <t>Sum of Package</t>
   </si>
   <si>
@@ -171,6 +168,18 @@
   </si>
   <si>
     <t>Actions using lambda</t>
+  </si>
+  <si>
+    <t>IteratedCollisionEvent</t>
+  </si>
+  <si>
+    <t>engine.event</t>
+  </si>
+  <si>
+    <t>EntityHandler</t>
+  </si>
+  <si>
+    <t>.map  x13</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,16 +573,16 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,16 +592,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="3">
         <v>5352</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -603,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -618,7 +627,7 @@
         <v>5253</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -627,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -642,16 +651,16 @@
         <v>5633</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -666,7 +675,7 @@
         <v>5684</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,15 +684,15 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(C3:C6)</f>
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="E6" s="1">
         <f>SUM(D3:D6)</f>
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="G6" s="2">
         <v>42828</v>
@@ -696,7 +705,7 @@
         <v>5556</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,89 +718,97 @@
         <v>42828</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H7:H35" si="0">I7-I6</f>
+        <f>I7-I6</f>
         <v>-54</v>
       </c>
       <c r="I7" s="3">
         <v>5502</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(C8:C8)</f>
+        <v>108</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(D3:D8)</f>
+        <v>1173</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42834</v>
+      </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>-5502</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
+        <f>I8-I7</f>
+        <v>90</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5592</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>271</v>
-      </c>
-      <c r="D9" s="1">
-        <f>SUM(C8:C9)</f>
-        <v>342</v>
-      </c>
-      <c r="E9" s="1">
-        <f>SUM(D3:D9)</f>
-        <v>1397</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>I9-I8</f>
+        <v>-5592</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>73</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
+        <f>I10-I9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>143</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(C10:C11)</f>
+        <v>267</v>
+      </c>
+      <c r="E11" s="1">
+        <f>SUM(D3:D11)</f>
+        <v>1440</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f>I11-I10</f>
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
@@ -799,29 +816,27 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>64</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H11:H38" si="0">I12-I11</f>
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -836,10 +851,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -854,16 +869,16 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f>I15-I14</f>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
@@ -872,10 +887,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>594</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -890,10 +905,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -908,10 +923,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -926,10 +941,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -944,19 +959,13 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>108</v>
-      </c>
-      <c r="D20" s="1">
-        <f>SUM(C11:C20)</f>
-        <v>1805</v>
-      </c>
-      <c r="E20" s="1">
-        <f>SUM(D3:D20)</f>
-        <v>3202</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
@@ -967,8 +976,12 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>49</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
@@ -980,14 +993,12 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1002,18 +1013,18 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM(C22:C23)</f>
-        <v>323</v>
+        <f>SUM(C13:C23)</f>
+        <v>1887</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(D3:D23)</f>
-        <v>3525</v>
+        <v>3327</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
@@ -1039,13 +1050,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1060,13 +1071,19 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
-        <v>114</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(C25:C26)</f>
+        <v>296</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(D3:D26)</f>
+        <v>3623</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
         <f t="shared" si="0"/>
@@ -1077,12 +1094,8 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
-        <v>503</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
@@ -1094,12 +1107,14 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1114,10 +1129,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1132,19 +1147,13 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>380</v>
-      </c>
-      <c r="D30" s="1">
-        <f>SUM(C25:C30)</f>
-        <v>1648</v>
-      </c>
-      <c r="E30" s="1">
-        <f>SUM(D3:D30)</f>
-        <v>5173</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
@@ -1155,8 +1164,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1">
+        <v>269</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="3"/>
@@ -1168,23 +1181,15 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
-        <v>43</v>
-      </c>
-      <c r="D32" s="1">
-        <f>SUM(C32)</f>
-        <v>43</v>
-      </c>
-      <c r="E32" s="1">
-        <f>SUM(D3:D32)</f>
-        <v>5216</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
@@ -1195,10 +1200,20 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>379</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM(C28:C33)</f>
+        <v>1640</v>
+      </c>
+      <c r="E33" s="1">
+        <f>SUM(D3:D33)</f>
+        <v>5263</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
@@ -1208,15 +1223,9 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>78</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="G34" s="3"/>
@@ -1228,20 +1237,22 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1">
-        <f>SUM(C34)*2+SUM(C35)*13</f>
-        <v>286</v>
+        <f>SUM(C35)</f>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
         <f>SUM(D3:D35)</f>
-        <v>5502</v>
+        <v>5306</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
@@ -1252,16 +1263,74 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM(C37)*2+SUM(C38)*13</f>
+        <v>286</v>
+      </c>
+      <c r="E38" s="1">
+        <f>SUM(D3:D38)</f>
+        <v>5592</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>engine.entity</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>.map  x13</t>
+  </si>
+  <si>
+    <t>BallCollisionEvent</t>
+  </si>
+  <si>
+    <t>BlockCollisionEvent</t>
+  </si>
+  <si>
+    <t>ItemPickupEvent</t>
+  </si>
+  <si>
+    <t>engine.event.basicevents</t>
+  </si>
+  <si>
+    <t>redone custom CollisionEvents</t>
   </si>
 </sst>
 </file>
@@ -547,26 +562,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -586,8 +601,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -605,14 +618,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>436</v>
+        <v>303</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -620,7 +633,7 @@
         <v>42781</v>
       </c>
       <c r="H3" s="3">
-        <f>I3-I2</f>
+        <f t="shared" ref="H3:H15" si="0">I3-I2</f>
         <v>-99</v>
       </c>
       <c r="I3" s="3">
@@ -631,8 +644,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -644,7 +656,7 @@
         <v>42823</v>
       </c>
       <c r="H4" s="3">
-        <f>I4-I3</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="I4" s="3">
@@ -655,8 +667,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
@@ -668,7 +679,7 @@
         <v>42827</v>
       </c>
       <c r="H5" s="3">
-        <f>I5-I4</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="I5" s="3">
@@ -679,38 +690,35 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>393</v>
+        <v>484</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(C3:C6)</f>
-        <v>1065</v>
+        <v>1023</v>
       </c>
       <c r="E6" s="1">
         <f>SUM(D3:D6)</f>
-        <v>1065</v>
+        <v>1023</v>
       </c>
       <c r="G6" s="2">
         <v>42828</v>
       </c>
       <c r="H6" s="3">
-        <f>I6-I5</f>
-        <v>-128</v>
+        <f t="shared" si="0"/>
+        <v>-228</v>
       </c>
       <c r="I6" s="3">
-        <v>5556</v>
+        <v>5456</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -718,95 +726,90 @@
         <v>42828</v>
       </c>
       <c r="H7" s="3">
-        <f>I7-I6</f>
+        <f t="shared" si="0"/>
         <v>-54</v>
       </c>
       <c r="I7" s="3">
-        <v>5502</v>
+        <v>5402</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1">
-        <v>108</v>
-      </c>
-      <c r="D8" s="1">
-        <f>SUM(C8:C8)</f>
-        <v>108</v>
-      </c>
-      <c r="E8" s="1">
-        <f>SUM(D3:D8)</f>
-        <v>1173</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="G8" s="2">
         <v>42834</v>
       </c>
       <c r="H8" s="3">
-        <f>I8-I7</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="I8" s="3">
-        <v>5592</v>
+        <v>5492</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="2">
+        <v>42839</v>
+      </c>
       <c r="H9" s="3">
         <f>I9-I8</f>
-        <v>-5592</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5499</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="1">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(C8:C10)</f>
+        <v>88</v>
+      </c>
+      <c r="E10" s="1">
+        <f>SUM(D3:D10)</f>
+        <v>1111</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="3">
         <f>I10-I9</f>
-        <v>0</v>
-      </c>
+        <v>-5499</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>194</v>
-      </c>
-      <c r="D11" s="1">
-        <f>SUM(C10:C11)</f>
-        <v>267</v>
-      </c>
-      <c r="E11" s="1">
-        <f>SUM(D3:D11)</f>
-        <v>1440</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="3">
         <f>I11-I10</f>
         <v>0</v>
@@ -815,522 +818,571 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(C12:C12)</f>
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(D7:D12)</f>
+        <v>161</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="3">
-        <f t="shared" ref="H11:H38" si="0">I12-I11</f>
+        <f>I12-I11</f>
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>135</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>475</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(C14:C15)</f>
+        <v>309</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(D3:D15)</f>
+        <v>1493</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f>I15-I14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>170</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H16:H42" si="1">I16-I15</f>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>124</v>
+        <v>439</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f>I19-I18</f>
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="1">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="1">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1">
-        <f>SUM(C13:C23)</f>
-        <v>1887</v>
-      </c>
-      <c r="E23" s="1">
-        <f>SUM(D3:D23)</f>
-        <v>3327</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>281</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="1">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>127</v>
-      </c>
-      <c r="D26" s="1">
-        <f>SUM(C25:C26)</f>
-        <v>296</v>
-      </c>
-      <c r="E26" s="1">
-        <f>SUM(D3:D26)</f>
-        <v>3623</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(C17:C27)</f>
+        <v>1851</v>
+      </c>
+      <c r="E27" s="1">
+        <f>SUM(D3:D27)</f>
+        <v>3344</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1">
-        <v>152</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>498</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(C29:C30)</f>
+        <v>295</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(D3:D30)</f>
+        <v>3639</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1">
-        <v>269</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>379</v>
-      </c>
-      <c r="D33" s="1">
-        <f>SUM(C28:C33)</f>
-        <v>1640</v>
-      </c>
-      <c r="E33" s="1">
-        <f>SUM(D3:D33)</f>
-        <v>5263</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>489</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1">
-        <f>SUM(C35)</f>
-        <v>43</v>
-      </c>
-      <c r="E35" s="1">
-        <f>SUM(D3:D35)</f>
-        <v>5306</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>232</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C37" s="1">
-        <v>78</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM(C32:C37)</f>
+        <v>1531</v>
+      </c>
+      <c r="E37" s="1">
+        <f>SUM(D3:D37)</f>
+        <v>5170</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <f>SUM(C37)*2+SUM(C38)*13</f>
-        <v>286</v>
-      </c>
-      <c r="E38" s="1">
-        <f>SUM(D3:D38)</f>
-        <v>5592</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM(C39)</f>
+        <v>43</v>
+      </c>
+      <c r="E39" s="1">
+        <f>SUM(D3:D39)</f>
+        <v>5213</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>78</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <f>SUM(C41)*2+SUM(C42)*13</f>
+        <v>286</v>
+      </c>
+      <c r="E42" s="1">
+        <f>SUM(D3:D42)</f>
+        <v>5499</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>engine.entity</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>redone custom CollisionEvents</t>
+  </si>
+  <si>
+    <t>highscore and options cleanup</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,15 +697,15 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(C3:C6)</f>
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="1">
         <f>SUM(D3:D6)</f>
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="G6" s="2">
         <v>42828</v>
@@ -798,21 +801,27 @@
       </c>
       <c r="E10" s="1">
         <f>SUM(D3:D10)</f>
-        <v>1111</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>1099</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42842</v>
+      </c>
       <c r="H10" s="3">
         <f>I10-I9</f>
-        <v>-5499</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
+        <v>-86</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5413</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="3">
         <f>I11-I10</f>
-        <v>0</v>
+        <v>-5413</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -883,7 +892,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(D3:D15)</f>
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
@@ -930,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -964,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -998,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1015,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1032,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="1">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1087,11 +1096,11 @@
       </c>
       <c r="D27" s="1">
         <f>SUM(C17:C27)</f>
-        <v>1851</v>
+        <v>1773</v>
       </c>
       <c r="E27" s="1">
         <f>SUM(D3:D27)</f>
-        <v>3344</v>
+        <v>3254</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
@@ -1121,7 +1130,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1142,11 +1151,11 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(C29:C30)</f>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(D3:D30)</f>
-        <v>3639</v>
+        <v>3548</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -1193,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1244,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1265,11 +1274,11 @@
       </c>
       <c r="D37" s="1">
         <f>SUM(C32:C37)</f>
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="E37" s="1">
         <f>SUM(D3:D37)</f>
-        <v>5170</v>
+        <v>5084</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
@@ -1307,7 +1316,7 @@
       </c>
       <c r="E39" s="1">
         <f>SUM(D3:D39)</f>
-        <v>5213</v>
+        <v>5127</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
@@ -1362,7 +1371,7 @@
       </c>
       <c r="E42" s="1">
         <f>SUM(D3:D42)</f>
-        <v>5499</v>
+        <v>5413</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Breakout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\Breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,23 +564,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="41.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -603,7 +603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -620,7 +620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -646,12 +646,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -669,12 +669,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -692,20 +692,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(C3:C6)</f>
-        <v>1011</v>
+        <v>1136</v>
       </c>
       <c r="E6" s="1">
         <f>SUM(D3:D6)</f>
-        <v>1011</v>
+        <v>1136</v>
       </c>
       <c r="G6" s="2">
         <v>42828</v>
@@ -721,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -765,7 +765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -788,7 +788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="E10" s="1">
         <f>SUM(D3:D10)</f>
-        <v>1099</v>
+        <v>1224</v>
       </c>
       <c r="G10" s="2">
         <v>42842</v>
@@ -817,16 +817,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="2">
+        <v>42984</v>
+      </c>
       <c r="H11" s="3">
         <f>I11-I10</f>
-        <v>-5413</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5652</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -834,24 +838,24 @@
         <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
         <f>SUM(C12:C12)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1">
         <f>SUM(D7:D12)</f>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3">
         <f>I12-I11</f>
-        <v>0</v>
+        <v>-5652</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -862,7 +866,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -870,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -879,20 +883,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1">
         <f>SUM(C14:C15)</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(D3:D15)</f>
-        <v>1481</v>
+        <v>1606</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
@@ -902,7 +906,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -914,7 +918,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -922,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -934,12 +938,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -951,12 +955,12 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -968,12 +972,12 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -985,12 +989,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1002,12 +1006,12 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1019,12 +1023,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1036,12 +1040,12 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1053,12 +1057,12 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1070,12 +1074,12 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1087,7 +1091,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1096,11 +1100,11 @@
       </c>
       <c r="D27" s="1">
         <f>SUM(C17:C27)</f>
-        <v>1773</v>
+        <v>1882</v>
       </c>
       <c r="E27" s="1">
         <f>SUM(D3:D27)</f>
-        <v>3254</v>
+        <v>3488</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
@@ -1110,7 +1114,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1122,7 +1126,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1142,7 +1146,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1151,11 +1155,11 @@
       </c>
       <c r="D30" s="1">
         <f>SUM(C29:C30)</f>
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E30" s="1">
         <f>SUM(D3:D30)</f>
-        <v>3548</v>
+        <v>3786</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -1165,7 +1169,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1177,7 +1181,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1197,12 +1201,12 @@
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1214,12 +1218,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1231,12 +1235,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1248,7 +1252,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
@@ -1265,20 +1269,20 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1">
         <f>SUM(C32:C37)</f>
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E37" s="1">
         <f>SUM(D3:D37)</f>
-        <v>5084</v>
+        <v>5323</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
@@ -1288,7 +1292,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1300,7 +1304,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1320,7 @@
       </c>
       <c r="E39" s="1">
         <f>SUM(D3:D39)</f>
-        <v>5127</v>
+        <v>5366</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
@@ -1326,7 +1330,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1338,7 +1342,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
@@ -1371,7 +1375,7 @@
       </c>
       <c r="E42" s="1">
         <f>SUM(D3:D42)</f>
-        <v>5413</v>
+        <v>5652</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
@@ -1381,13 +1385,13 @@
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>engine.entity</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>highscore and options cleanup</t>
+  </si>
+  <si>
+    <t>added target indicator for Stick-BOT</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,7 +831,9 @@
       <c r="I11" s="3">
         <v>5652</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
